--- a/outputs-HGR-r202/g__Pediococcus.xlsx
+++ b/outputs-HGR-r202/g__Pediococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,510 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3427.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3435.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46722.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49010.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89102.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89162.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89246.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89309.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89335.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89577.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89608.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89735.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89784.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89815.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89836.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89852.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90020.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90054.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90362.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90441.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90671.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90682.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90730.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90775.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90941.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90963.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91014.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91566.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Pediococcus.xlsx
+++ b/outputs-HGR-r202/g__Pediococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,26 +447,28 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2019.fa</t>
+          <t>even_MAG-GUT89102.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -477,14 +479,16 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2060.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -495,14 +499,16 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27420.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -513,14 +519,16 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3427.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -531,14 +539,16 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3435.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -549,14 +559,16 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46722.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -567,14 +579,16 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49010.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -585,14 +599,16 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -603,14 +619,16 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -621,14 +639,16 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -639,14 +659,16 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -657,14 +679,16 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -675,14 +699,16 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -693,14 +719,16 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89608.fa</t>
+          <t>even_MAG-GUT90730.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -711,14 +739,16 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT90941.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -729,14 +759,16 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -747,268 +779,18 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89836.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89852.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90020.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90054.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90362.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90441.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90671.fa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90682.fa</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90730.fa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90775.fa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90941.fa</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90963.fa</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91014.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91566.fa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>

--- a/outputs-HGR-r202/g__Pediococcus.xlsx
+++ b/outputs-HGR-r202/g__Pediococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,7 +993,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90682.fa</t>
+          <t>even_MAG-GUT90671.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1016,7 +1016,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1039,7 +1039,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90941.fa</t>
+          <t>even_MAG-GUT90730.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1062,7 +1062,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90963.fa</t>
+          <t>even_MAG-GUT90775.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,7 +1085,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91014.fa</t>
+          <t>even_MAG-GUT90941.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1108,7 +1108,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91566.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1131,7 +1131,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91702.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1154,21 +1154,67 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91566.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91702.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>s__Pediococcus acidilactici</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
